--- a/backend/uploads/ExtractedFiles/27.12.23/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/27.12.23/1250.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Emp_code</t>
   </si>
@@ -43,20 +43,14 @@
     <t>XX</t>
   </si>
   <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>XA</t>
-  </si>
-  <si>
-    <t>HH</t>
+    <t>AA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,21 +68,7 @@
     <font>
       <b/>
       <sz val="5"/>
-      <color rgb="FFD3D3D3"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="5"/>
       <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="5"/>
-      <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -107,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,22 +110,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,13 +125,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,21 +468,21 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>45279</v>
+        <v>45293</v>
       </c>
       <c r="D2" s="2">
-        <v>9.56</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>19.16</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -530,285 +492,21 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>45280</v>
+        <v>45294</v>
       </c>
       <c r="D3" s="2">
-        <v>9.2200000000000006</v>
+        <v>9.34</v>
       </c>
       <c r="E3" s="2">
-        <v>20.25</v>
+        <v>19.28</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <v>11.03</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1250</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45281</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="E4" s="2">
-        <v>18.18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45282</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16.48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1250</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45283</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45284</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1250</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45285</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1250</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45286</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9.09</v>
-      </c>
-      <c r="E9" s="2">
-        <v>18.27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="6"/>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/uploads/ExtractedFiles/27.12.23/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/27.12.23/1250.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Emp_code</t>
   </si>
@@ -44,22 +44,13 @@
   </si>
   <si>
     <t>WH</t>
-  </si>
-  <si>
-    <t>XA</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>AA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +62,6 @@
       <b/>
       <sz val="5"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="5"/>
-      <color rgb="FFD3D3D3"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -103,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,22 +110,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -152,10 +125,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,21 +468,21 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>45279</v>
+        <v>45361</v>
       </c>
       <c r="D2" s="2">
-        <v>9.56</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>19.16</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -523,413 +492,21 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>45280</v>
+        <v>45362</v>
       </c>
       <c r="D3" s="2">
-        <v>9.2200000000000006</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="E3" s="2">
-        <v>20.25</v>
+        <v>18.5</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <v>11.03</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1250</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45281</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="E4" s="2">
-        <v>18.18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45282</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16.48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1250</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45283</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45284</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1250</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45285</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1250</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45286</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9.09</v>
-      </c>
-      <c r="E9" s="2">
-        <v>18.27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45287</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18.13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9.02</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45288</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E11" s="2">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9.14</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45289</v>
-      </c>
-      <c r="D12" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="E12" s="2">
-        <v>18.04</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1250</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45290</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1250</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45291</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1250</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45292</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1250</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45293</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1250</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45294</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9.34</v>
-      </c>
-      <c r="E17" s="2">
-        <v>19.28</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/uploads/ExtractedFiles/27.12.23/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/27.12.23/1250.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="11480" windowHeight="7230"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="11480" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -428,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,4 +514,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>